--- a/data_lake/아군가용자산.xlsx
+++ b/data_lake/아군가용자산.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +486,6 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>감지범위_km</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>탐지범위_km</t>
         </is>
       </c>
@@ -543,7 +538,6 @@
       <c r="K2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -593,7 +587,6 @@
       <c r="K3" t="n">
         <v>15</v>
       </c>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -643,7 +636,6 @@
       <c r="K4" t="n">
         <v>15</v>
       </c>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -693,7 +685,6 @@
       <c r="K5" t="n">
         <v>15</v>
       </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -743,7 +734,6 @@
       <c r="K6" t="n">
         <v>15</v>
       </c>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -793,7 +783,6 @@
       <c r="K7" t="n">
         <v>15</v>
       </c>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -843,7 +832,6 @@
       <c r="K8" t="n">
         <v>15</v>
       </c>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -893,7 +881,6 @@
       <c r="K9" t="n">
         <v>15</v>
       </c>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -943,7 +930,6 @@
       <c r="K10" t="n">
         <v>15</v>
       </c>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -993,7 +979,6 @@
       <c r="K11" t="n">
         <v>15</v>
       </c>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1043,7 +1028,6 @@
       <c r="K12" t="n">
         <v>15</v>
       </c>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1093,7 +1077,6 @@
       <c r="K13" t="n">
         <v>15</v>
       </c>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1143,7 +1126,6 @@
       <c r="K14" t="n">
         <v>15</v>
       </c>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1193,7 +1175,6 @@
       <c r="K15" t="n">
         <v>15</v>
       </c>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1243,7 +1224,6 @@
       <c r="K16" t="n">
         <v>15</v>
       </c>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1293,7 +1273,6 @@
       <c r="K17" t="n">
         <v>15</v>
       </c>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1343,7 +1322,6 @@
       <c r="K18" t="n">
         <v>15</v>
       </c>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1393,7 +1371,6 @@
       <c r="K19" t="n">
         <v>15</v>
       </c>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1443,7 +1420,6 @@
       <c r="K20" t="n">
         <v>15</v>
       </c>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1493,7 +1469,6 @@
       <c r="K21" t="n">
         <v>15</v>
       </c>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1543,7 +1518,6 @@
       <c r="K22" t="n">
         <v>15</v>
       </c>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1574,7 +1548,11 @@
           <t>가용</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>SFAPMFQA--****X</t>
@@ -1589,7 +1567,6 @@
       <c r="K23" t="n">
         <v>50</v>
       </c>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1620,7 +1597,11 @@
           <t>가용</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>SFGP-------</t>
@@ -1635,7 +1616,6 @@
       <c r="K24" t="n">
         <v>15</v>
       </c>
-      <c r="L24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
